--- a/forms/app/outcome_report.xlsx
+++ b/forms/app/outcome_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="196">
   <si>
     <t>list_name</t>
   </si>
@@ -249,9 +249,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>death_report</t>
-  </si>
-  <si>
     <t>places_of_death</t>
   </si>
   <si>
@@ -342,19 +339,7 @@
     <t>if(../patient_short_name = '', ../patient_name, concat(../patient_name, ' (', ../patient_short_name, ')'))</t>
   </si>
   <si>
-    <t>death_details</t>
-  </si>
-  <si>
-    <t>Death details</t>
-  </si>
-  <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>date_of_death</t>
-  </si>
-  <si>
-    <t>Date of Death</t>
   </si>
   <si>
     <t>(decimal-date-time(.) &lt;= decimal-date-time(today()))
@@ -364,31 +349,7 @@
     <t>Date of death can only be from today up to 1 year ago.</t>
   </si>
   <si>
-    <t>select_one places_of_death</t>
-  </si>
-  <si>
-    <t>place_of_death</t>
-  </si>
-  <si>
-    <t>Place of death</t>
-  </si>
-  <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>place_of_death_other</t>
-  </si>
-  <si>
-    <t>Specify other</t>
-  </si>
-  <si>
-    <t>selected(../place_of_death, 'other')</t>
-  </si>
-  <si>
-    <t>death_information</t>
-  </si>
-  <si>
-    <t>Provide any relevant information related to the death of ${patient_display_name}.</t>
   </si>
   <si>
     <t>multiline</t>
@@ -431,120 +392,231 @@
     <t>r_patient_details</t>
   </si>
   <si>
+    <t>r_key_instruction</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Important Information&lt;/b&gt;&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 blue</t>
+  </si>
+  <si>
+    <t>blank_note</t>
+  </si>
+  <si>
+    <t>r_referral</t>
+  </si>
+  <si>
+    <t>h1 red</t>
+  </si>
+  <si>
+    <t>r_undo</t>
+  </si>
+  <si>
+    <t>__date_of_death</t>
+  </si>
+  <si>
+    <t>${date_of_death}</t>
+  </si>
+  <si>
+    <t>The date that the patient died.</t>
+  </si>
+  <si>
+    <t>__place_of_death</t>
+  </si>
+  <si>
+    <t>${place_of_death}</t>
+  </si>
+  <si>
+    <t>Where the patient died (health facility, home, other).</t>
+  </si>
+  <si>
+    <t>__place_of_death_other</t>
+  </si>
+  <si>
+    <t>${place_of_death_other}</t>
+  </si>
+  <si>
+    <t>Free text describing where the patient died if "other" was selected for place of death.</t>
+  </si>
+  <si>
+    <t>__death_information</t>
+  </si>
+  <si>
+    <t>${death_information}</t>
+  </si>
+  <si>
+    <t>Free text providing further information related to the death.</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>__patient_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>Patient UUID</t>
+  </si>
+  <si>
+    <t>__patient_id</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>__household_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/parent/_id</t>
+  </si>
+  <si>
+    <t>Household UUID</t>
+  </si>
+  <si>
+    <t>__source</t>
+  </si>
+  <si>
+    <t>../../../inputs/source</t>
+  </si>
+  <si>
+    <t>__source_id</t>
+  </si>
+  <si>
+    <t>../../../inputs/source_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source ID </t>
+  </si>
+  <si>
+    <t>outcome_details</t>
+  </si>
+  <si>
+    <t>Outcome details</t>
+  </si>
+  <si>
+    <t>date_of_outcome_submission</t>
+  </si>
+  <si>
     <t>&lt;div style="text-align:center;"&gt;${patient_display_name}
 ${c_patient_age}
-Date of Death: ${date_of_death}&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>r_death_info</t>
-  </si>
-  <si>
-    <t>&lt;div style="text-align:center;"&gt;Relevant Information: ${death_information}&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>r_key_instruction</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Important Information&lt;/b&gt;&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>h1 blue</t>
-  </si>
-  <si>
-    <t>blank_note</t>
-  </si>
-  <si>
-    <t>r_referral</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;You will never be able to do any follow ups on ${patient_display_name} when you submit this death report.&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>h1 red</t>
-  </si>
-  <si>
-    <t>r_undo</t>
-  </si>
-  <si>
-    <t>You will be able to undo this death report later, if needed.</t>
-  </si>
-  <si>
-    <t>__date_of_death</t>
-  </si>
-  <si>
-    <t>${date_of_death}</t>
-  </si>
-  <si>
-    <t>The date that the patient died.</t>
-  </si>
-  <si>
-    <t>__place_of_death</t>
-  </si>
-  <si>
-    <t>${place_of_death}</t>
-  </si>
-  <si>
-    <t>Where the patient died (health facility, home, other).</t>
-  </si>
-  <si>
-    <t>__place_of_death_other</t>
-  </si>
-  <si>
-    <t>${place_of_death_other}</t>
-  </si>
-  <si>
-    <t>Free text describing where the patient died if "other" was selected for place of death.</t>
-  </si>
-  <si>
-    <t>__death_information</t>
-  </si>
-  <si>
-    <t>${death_information}</t>
-  </si>
-  <si>
-    <t>Free text providing further information related to the death.</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>__patient_uuid</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>Patient UUID</t>
-  </si>
-  <si>
-    <t>__patient_id</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>__household_uuid</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/parent/_id</t>
-  </si>
-  <si>
-    <t>Household UUID</t>
-  </si>
-  <si>
-    <t>__source</t>
-  </si>
-  <si>
-    <t>../../../inputs/source</t>
-  </si>
-  <si>
-    <t>__source_id</t>
-  </si>
-  <si>
-    <t>../../../inputs/source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID </t>
+Date of Outcome: ${date_of_outcome_submission}&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>r_outcome_info</t>
+  </si>
+  <si>
+    <t>outcome_information</t>
+  </si>
+  <si>
+    <t>Provide any relevant information related to the outcome of ${patient_display_name}.</t>
+  </si>
+  <si>
+    <t>&lt;div style="text-align:center;"&gt;Relevant Information: ${outcome_information}&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;You will never be able to do any follow ups on ${patient_display_name} when you submit this outcome report.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>You will be able to undo this outcome report later, if needed.</t>
+  </si>
+  <si>
+    <t>Date of outcome submission</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>Recovered/Healthy</t>
+  </si>
+  <si>
+    <t>Not recovered</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>recovered</t>
+  </si>
+  <si>
+    <t>not_recovered</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>select_one outcome</t>
+  </si>
+  <si>
+    <t>health_outcome</t>
+  </si>
+  <si>
+    <t>Health outcome</t>
+  </si>
+  <si>
+    <t>other_health_outcome</t>
+  </si>
+  <si>
+    <t>Please explain health outcome</t>
+  </si>
+  <si>
+    <t>selected(../health_outcome, 'other')</t>
+  </si>
+  <si>
+    <t>yes_no_unknown</t>
+  </si>
+  <si>
+    <t>select_one yes_no_unknown</t>
+  </si>
+  <si>
+    <t>outcome_released</t>
+  </si>
+  <si>
+    <t>Was case released from isolation/hospital?</t>
+  </si>
+  <si>
+    <t>isolation_details</t>
+  </si>
+  <si>
+    <t>Isolation details</t>
+  </si>
+  <si>
+    <t>outcome_date_of_outcome</t>
+  </si>
+  <si>
+    <t>Date of Release from isolation/hospital or Date of Death</t>
+  </si>
+  <si>
+    <t>outcome_lab_date</t>
+  </si>
+  <si>
+    <t>If case was released from isolation/hospital, date of last laboratory test</t>
+  </si>
+  <si>
+    <t>select_one lab_results</t>
+  </si>
+  <si>
+    <t>outcome_lab_result</t>
+  </si>
+  <si>
+    <t>If case was released from isolation/hospital, results of last test</t>
+  </si>
+  <si>
+    <t>${outcome_released} = ‘1’ or ${outcome} = ‘death’</t>
+  </si>
+  <si>
+    <t>${outcome_released} = ‘1’</t>
+  </si>
+  <si>
+    <t>outcome_report</t>
   </si>
 </sst>
 </file>
@@ -554,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -593,6 +665,30 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -700,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,6 +856,21 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,13 +1156,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ68"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1809,10 +1920,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1850,7 +1961,7 @@
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -1890,7 +2001,7 @@
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
@@ -1930,7 +2041,7 @@
     </row>
     <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
@@ -1970,7 +2081,7 @@
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
@@ -2010,7 +2121,7 @@
     </row>
     <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
@@ -2088,10 +2199,10 @@
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>38</v>
@@ -2114,7 +2225,7 @@
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
       <c r="U23" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
@@ -2138,10 +2249,10 @@
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>38</v>
@@ -2164,7 +2275,7 @@
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
       <c r="U24" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
@@ -2188,10 +2299,10 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>38</v>
@@ -2214,7 +2325,7 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
@@ -2236,10 +2347,10 @@
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>38</v>
@@ -2262,7 +2373,7 @@
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
       <c r="U26" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
@@ -2284,7 +2395,7 @@
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>62</v>
@@ -2310,7 +2421,7 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V27" s="24"/>
       <c r="W27" s="24"/>
@@ -2332,10 +2443,10 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>38</v>
@@ -2358,7 +2469,7 @@
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V28" s="24"/>
       <c r="W28" s="24"/>
@@ -2380,10 +2491,10 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>38</v>
@@ -2406,7 +2517,7 @@
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
       <c r="U29" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
@@ -2428,10 +2539,10 @@
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>38</v>
@@ -2454,7 +2565,7 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
       <c r="U30" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
@@ -2517,10 +2628,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -2560,13 +2671,13 @@
     </row>
     <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -2580,10 +2691,10 @@
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
@@ -2610,13 +2721,13 @@
     </row>
     <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>115</v>
+        <v>174</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>176</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -2656,13 +2767,13 @@
     </row>
     <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>178</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -2673,8 +2784,8 @@
       <c r="J35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="28" t="s">
-        <v>119</v>
+      <c r="K35" s="42" t="s">
+        <v>179</v>
       </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
@@ -2704,13 +2815,13 @@
     </row>
     <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -2721,7 +2832,7 @@
       <c r="J36" s="28"/>
       <c r="K36" s="29"/>
       <c r="L36" s="28" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
@@ -2750,9 +2861,11 @@
     </row>
     <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="27"/>
+        <v>85</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -2788,368 +2901,356 @@
       <c r="AI37" s="28"/>
       <c r="AJ37" s="28"/>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
+    <row r="38" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
     </row>
     <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
+      <c r="B39" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
     </row>
     <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
+      <c r="A40" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
     </row>
     <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
+      <c r="A41" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
     </row>
     <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
+      <c r="A42" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AJ42" s="29"/>
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
+      <c r="A43" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
     </row>
     <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
+      <c r="A44" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
     </row>
     <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
     </row>
     <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>38</v>
@@ -3162,7 +3263,9 @@
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="L46" s="31" t="s">
+        <v>111</v>
+      </c>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
       <c r="O46" s="31"/>
@@ -3182,21 +3285,23 @@
       <c r="AC46" s="31"/>
       <c r="AD46" s="31"/>
       <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
+      <c r="AF46" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="32"/>
     </row>
     <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
@@ -3205,10 +3310,8 @@
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="31" t="s">
-        <v>143</v>
-      </c>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
@@ -3235,14 +3338,14 @@
       <c r="AJ47" s="31"/>
     </row>
     <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>145</v>
+      <c r="A48" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
@@ -3252,7 +3355,9 @@
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+      <c r="L48" s="31" t="s">
+        <v>117</v>
+      </c>
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
@@ -3280,10 +3385,14 @@
     </row>
     <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>38</v>
+      </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -3301,7 +3410,9 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
       <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
+      <c r="U49" s="31" t="s">
+        <v>119</v>
+      </c>
       <c r="V49" s="31"/>
       <c r="W49" s="31"/>
       <c r="X49" s="31"/>
@@ -3319,381 +3430,357 @@
       <c r="AJ49" s="31"/>
     </row>
     <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
+      <c r="A50" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
     </row>
     <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="35" t="s">
+      <c r="A51" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+    </row>
+    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="31"/>
+      <c r="Y52" s="31"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
+      <c r="AE52" s="31"/>
+      <c r="AF52" s="31"/>
+      <c r="AG52" s="31"/>
+      <c r="AH52" s="31"/>
+      <c r="AI52" s="31"/>
+      <c r="AJ52" s="31"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-    </row>
-    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31"/>
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="31"/>
+      <c r="AH53" s="31"/>
+      <c r="AI53" s="31"/>
+      <c r="AJ53" s="31"/>
     </row>
     <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH54" s="37"/>
-      <c r="AI54" s="35"/>
-      <c r="AJ54" s="35"/>
+      <c r="A54" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="31"/>
+      <c r="AI54" s="31"/>
+      <c r="AJ54" s="31"/>
     </row>
     <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
+      <c r="A55" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="31"/>
+      <c r="Y55" s="31"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="31"/>
+      <c r="AB55" s="31"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="31"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="31"/>
+      <c r="AG55" s="31"/>
+      <c r="AH55" s="31"/>
+      <c r="AI55" s="31"/>
+      <c r="AJ55" s="31"/>
     </row>
     <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="35"/>
-      <c r="AJ56" s="35"/>
+      <c r="A56" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="31"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="31"/>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="31"/>
+      <c r="AG56" s="31"/>
+      <c r="AH56" s="31"/>
+      <c r="AI56" s="31"/>
+      <c r="AJ56" s="31"/>
     </row>
     <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH57" s="35"/>
-      <c r="AI57" s="35"/>
-      <c r="AJ57" s="35"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
     </row>
     <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="34" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>38</v>
@@ -3706,7 +3793,9 @@
       <c r="I58" s="35"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
+      <c r="L58" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
@@ -3715,9 +3804,7 @@
       <c r="R58" s="35"/>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
-      <c r="U58" s="35" t="s">
-        <v>163</v>
-      </c>
+      <c r="U58" s="35"/>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
@@ -3728,20 +3815,20 @@
       <c r="AC58" s="35"/>
       <c r="AD58" s="35"/>
       <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="35" t="s">
-        <v>64</v>
-      </c>
+      <c r="AF58" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG58" s="35"/>
       <c r="AH58" s="35"/>
       <c r="AI58" s="35"/>
       <c r="AJ58" s="35"/>
     </row>
     <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>164</v>
+        <v>89</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>38</v>
@@ -3763,8 +3850,8 @@
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
-      <c r="U59" s="35" t="s">
-        <v>165</v>
+      <c r="U59" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -3778,18 +3865,18 @@
       <c r="AE59" s="35"/>
       <c r="AF59" s="35"/>
       <c r="AG59" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH59" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="AH59" s="37"/>
       <c r="AI59" s="35"/>
       <c r="AJ59" s="35"/>
     </row>
     <row r="60" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>167</v>
+        <v>89</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>38</v>
@@ -3811,8 +3898,8 @@
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
-      <c r="U60" s="35" t="s">
-        <v>168</v>
+      <c r="U60" s="37" t="s">
+        <v>132</v>
       </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -3825,19 +3912,19 @@
       <c r="AD60" s="35"/>
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
-      <c r="AG60" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH60" s="35"/>
+      <c r="AG60" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH60" s="37"/>
       <c r="AI60" s="35"/>
       <c r="AJ60" s="35"/>
     </row>
     <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>169</v>
+        <v>89</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>38</v>
@@ -3859,8 +3946,8 @@
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
-      <c r="U61" s="35" t="s">
-        <v>170</v>
+      <c r="U61" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
@@ -3873,21 +3960,23 @@
       <c r="AD61" s="35"/>
       <c r="AE61" s="35"/>
       <c r="AF61" s="35"/>
-      <c r="AG61" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH61" s="35"/>
+      <c r="AG61" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH61" s="37"/>
       <c r="AI61" s="35"/>
       <c r="AJ61" s="35"/>
     </row>
     <row r="62" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="35"/>
+      <c r="A62" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
@@ -3905,7 +3994,9 @@
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
+      <c r="U62" s="37" t="s">
+        <v>138</v>
+      </c>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
@@ -3917,19 +4008,23 @@
       <c r="AD62" s="35"/>
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="35"/>
+      <c r="AG62" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH62" s="37"/>
       <c r="AI62" s="35"/>
       <c r="AJ62" s="35"/>
     </row>
     <row r="63" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="38" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
@@ -3965,203 +4060,527 @@
       <c r="AJ63" s="35"/>
     </row>
     <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
-      <c r="AD64" s="21"/>
-      <c r="AE64" s="21"/>
-      <c r="AF64" s="21"/>
-      <c r="AG64" s="21"/>
-      <c r="AH64" s="21"/>
-      <c r="AI64" s="21"/>
-      <c r="AJ64" s="21"/>
+      <c r="A64" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
     </row>
     <row r="65" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
-      <c r="AH65" s="21"/>
-      <c r="AI65" s="21"/>
-      <c r="AJ65" s="21"/>
+      <c r="A65" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
     </row>
     <row r="66" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="21"/>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
+      <c r="A66" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
     </row>
     <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="21"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21"/>
-      <c r="AJ67" s="21"/>
+      <c r="A67" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
     </row>
     <row r="68" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
-      <c r="AD68" s="21"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
-      <c r="AI68" s="21"/>
-      <c r="AJ68" s="21"/>
+      <c r="A68" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+    </row>
+    <row r="69" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+    </row>
+    <row r="70" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
+      <c r="AJ70" s="35"/>
+    </row>
+    <row r="71" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+    </row>
+    <row r="72" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="21"/>
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="21"/>
+    </row>
+    <row r="73" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+    </row>
+    <row r="74" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+    </row>
+    <row r="75" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J2:J68">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J75">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4170,11 +4589,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4314,14 +4733,14 @@
       <c r="W4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>78</v>
+      <c r="A5" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -4345,14 +4764,14 @@
       <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>79</v>
+      <c r="A6" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>171</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -4376,14 +4795,14 @@
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>81</v>
+      <c r="A7" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -4407,9 +4826,15 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -4432,6 +4857,15 @@
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -4448,6 +4882,15 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="43">
+        <v>2</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>74</v>
+      </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -4456,6 +4899,15 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -4464,6 +4916,15 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="43">
+        <v>3</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>169</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -6119,14 +6580,7 @@
       <c r="H219" s="15"/>
       <c r="I219" s="15"/>
     </row>
-    <row r="220" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
-      <c r="I220" s="15"/>
-    </row>
+    <row r="220" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="221" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="222" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="223" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6906,7 +7360,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6920,9 +7373,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6978,22 +7431,22 @@
       <c r="A2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>75</v>
+      <c r="B2" s="47" t="s">
+        <v>195</v>
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44135.48527824074</v>
+        <v>44135.520376504632</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -14055,13 +14508,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -14086,13 +14539,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -14117,13 +14570,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>

--- a/forms/app/outcome_report.xlsx
+++ b/forms/app/outcome_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="203">
   <si>
     <t>list_name</t>
   </si>
@@ -617,6 +617,27 @@
   </si>
   <si>
     <t>outcome_report</t>
+  </si>
+  <si>
+    <t>lab_results</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Inconclusive</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>inconclusive</t>
   </si>
 </sst>
 </file>
@@ -637,34 +658,41 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1158,11 +1186,11 @@
   </sheetPr>
   <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4593,7 +4621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4940,39 +4968,51 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -4980,7 +5020,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -4988,7 +5028,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -4996,7 +5036,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -5004,7 +5044,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -5012,7 +5052,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -5020,7 +5060,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -5028,7 +5068,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -5036,7 +5076,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5044,7 +5084,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -5052,7 +5092,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5060,7 +5100,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5068,7 +5108,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -5076,7 +5116,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -7373,7 +7413,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C8:C9"/>
     </sheetView>
@@ -7436,7 +7476,7 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44135.520376504632</v>
+        <v>44135.534565162037</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>86</v>

--- a/forms/app/outcome_report.xlsx
+++ b/forms/app/outcome_report.xlsx
@@ -610,9 +610,6 @@
     <t>If case was released from isolation/hospital, results of last test</t>
   </si>
   <si>
-    <t>${outcome_released} = ‘1’ or ${outcome} = ‘death’</t>
-  </si>
-  <si>
     <t>${outcome_released} = ‘1’</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t>inconclusive</t>
+  </si>
+  <si>
+    <t>${outcome_released} = ‘1’ or ${health_outcome} = ‘death’</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3074,8 +3074,8 @@
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
-      <c r="K41" s="42" t="s">
-        <v>193</v>
+      <c r="K41" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -3121,7 +3121,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -3166,7 +3166,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
@@ -4970,40 +4970,40 @@
     </row>
     <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>173</v>
@@ -7472,11 +7472,11 @@
         <v>71</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44135.534565162037</v>
+        <v>44135.539125925927</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>86</v>

--- a/forms/app/outcome_report.xlsx
+++ b/forms/app/outcome_report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="197">
   <si>
     <t>list_name</t>
   </si>
@@ -413,34 +413,10 @@
     <t>r_undo</t>
   </si>
   <si>
-    <t>__date_of_death</t>
-  </si>
-  <si>
     <t>${date_of_death}</t>
   </si>
   <si>
     <t>The date that the patient died.</t>
-  </si>
-  <si>
-    <t>__place_of_death</t>
-  </si>
-  <si>
-    <t>${place_of_death}</t>
-  </si>
-  <si>
-    <t>Where the patient died (health facility, home, other).</t>
-  </si>
-  <si>
-    <t>__place_of_death_other</t>
-  </si>
-  <si>
-    <t>${place_of_death_other}</t>
-  </si>
-  <si>
-    <t>Free text describing where the patient died if "other" was selected for place of death.</t>
-  </si>
-  <si>
-    <t>__death_information</t>
   </si>
   <si>
     <t>${death_information}</t>
@@ -638,6 +614,12 @@
   </si>
   <si>
     <t>${outcome_released} = ‘1’ or ${health_outcome} = ‘death’</t>
+  </si>
+  <si>
+    <t>__date_of_outcome_submission</t>
+  </si>
+  <si>
+    <t>__outcome_information</t>
   </si>
 </sst>
 </file>
@@ -881,7 +863,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,6 +882,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,13 +1166,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ75"/>
+  <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2656,10 +2638,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -2702,10 +2684,10 @@
         <v>105</v>
       </c>
       <c r="B33" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>164</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -2749,13 +2731,13 @@
     </row>
     <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -2797,11 +2779,11 @@
       <c r="A35" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>178</v>
+      <c r="B35" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -2812,8 +2794,8 @@
       <c r="J35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="42" t="s">
-        <v>179</v>
+      <c r="K35" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
@@ -2846,10 +2828,10 @@
         <v>108</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -2892,7 +2874,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -2929,53 +2911,53 @@
       <c r="AI37" s="28"/>
       <c r="AJ37" s="28"/>
     </row>
-    <row r="38" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="44"/>
+    <row r="38" spans="1:36" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
     </row>
     <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>185</v>
+      <c r="B39" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -3014,14 +2996,14 @@
       <c r="AJ39" s="29"/>
     </row>
     <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>183</v>
+      <c r="A40" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>175</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -3058,14 +3040,14 @@
       <c r="AJ40" s="29"/>
     </row>
     <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>187</v>
+      <c r="B41" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>179</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -3075,7 +3057,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -3104,14 +3086,14 @@
       <c r="AJ41" s="29"/>
     </row>
     <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>189</v>
+      <c r="B42" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>181</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -3120,8 +3102,8 @@
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="43" t="s">
-        <v>193</v>
+      <c r="K42" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -3149,14 +3131,14 @@
       <c r="AJ42" s="29"/>
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>192</v>
+      <c r="A43" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -3165,8 +3147,8 @@
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
-      <c r="K43" s="43" t="s">
-        <v>193</v>
+      <c r="K43" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
@@ -3197,8 +3179,8 @@
       <c r="A44" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>184</v>
+      <c r="B44" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -3464,8 +3446,8 @@
       <c r="B50" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>157</v>
+      <c r="C50" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
@@ -3506,10 +3488,10 @@
         <v>112</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
@@ -3643,7 +3625,7 @@
         <v>125</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
@@ -3689,7 +3671,7 @@
         <v>127</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
@@ -3855,8 +3837,8 @@
       <c r="A59" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>128</v>
+      <c r="B59" s="47" t="s">
+        <v>195</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>38</v>
@@ -3878,8 +3860,8 @@
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
-      <c r="U59" s="37" t="s">
-        <v>129</v>
+      <c r="U59" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -3892,10 +3874,10 @@
       <c r="AD59" s="35"/>
       <c r="AE59" s="35"/>
       <c r="AF59" s="35"/>
-      <c r="AG59" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH59" s="37"/>
+      <c r="AG59" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH59" s="36"/>
       <c r="AI59" s="35"/>
       <c r="AJ59" s="35"/>
     </row>
@@ -3903,8 +3885,8 @@
       <c r="A60" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>131</v>
+      <c r="B60" s="47" t="s">
+        <v>196</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>38</v>
@@ -3926,8 +3908,8 @@
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
-      <c r="U60" s="37" t="s">
-        <v>132</v>
+      <c r="U60" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -3940,19 +3922,19 @@
       <c r="AD60" s="35"/>
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
-      <c r="AG60" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH60" s="37"/>
+      <c r="AG60" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH60" s="36"/>
       <c r="AI60" s="35"/>
       <c r="AJ60" s="35"/>
     </row>
     <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>134</v>
+      <c r="A61" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>132</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>38</v>
@@ -3974,9 +3956,7 @@
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
-      <c r="U61" s="37" t="s">
-        <v>135</v>
-      </c>
+      <c r="U61" s="35"/>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
@@ -3988,10 +3968,8 @@
       <c r="AD61" s="35"/>
       <c r="AE61" s="35"/>
       <c r="AF61" s="35"/>
-      <c r="AG61" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH61" s="37"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="35"/>
       <c r="AI61" s="35"/>
       <c r="AJ61" s="35"/>
     </row>
@@ -3999,8 +3977,8 @@
       <c r="A62" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>137</v>
+      <c r="B62" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>38</v>
@@ -4022,8 +4000,8 @@
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
-      <c r="U62" s="37" t="s">
-        <v>138</v>
+      <c r="U62" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
@@ -4036,19 +4014,19 @@
       <c r="AD62" s="35"/>
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
-      <c r="AG62" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH62" s="37"/>
+      <c r="AG62" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH62" s="35"/>
       <c r="AI62" s="35"/>
       <c r="AJ62" s="35"/>
     </row>
     <row r="63" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>140</v>
+      <c r="A63" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>38</v>
@@ -4070,7 +4048,9 @@
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
+      <c r="U63" s="35" t="s">
+        <v>137</v>
+      </c>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
@@ -4082,7 +4062,9 @@
       <c r="AD63" s="35"/>
       <c r="AE63" s="35"/>
       <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
+      <c r="AG63" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="AH63" s="35"/>
       <c r="AI63" s="35"/>
       <c r="AJ63" s="35"/>
@@ -4092,7 +4074,7 @@
         <v>89</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>38</v>
@@ -4115,7 +4097,7 @@
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
@@ -4128,8 +4110,8 @@
       <c r="AD64" s="35"/>
       <c r="AE64" s="35"/>
       <c r="AF64" s="35"/>
-      <c r="AG64" s="35" t="s">
-        <v>143</v>
+      <c r="AG64" s="36" t="s">
+        <v>140</v>
       </c>
       <c r="AH64" s="35"/>
       <c r="AI64" s="35"/>
@@ -4140,7 +4122,7 @@
         <v>89</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>38</v>
@@ -4163,7 +4145,7 @@
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
@@ -4177,7 +4159,7 @@
       <c r="AE65" s="35"/>
       <c r="AF65" s="35"/>
       <c r="AG65" s="35" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AH65" s="35"/>
       <c r="AI65" s="35"/>
@@ -4188,7 +4170,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>38</v>
@@ -4211,7 +4193,7 @@
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
@@ -4224,23 +4206,21 @@
       <c r="AD66" s="35"/>
       <c r="AE66" s="35"/>
       <c r="AF66" s="35"/>
-      <c r="AG66" s="37" t="s">
-        <v>148</v>
+      <c r="AG66" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="AH66" s="35"/>
       <c r="AI66" s="35"/>
       <c r="AJ66" s="35"/>
     </row>
     <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="A67" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
@@ -4258,9 +4238,7 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
-      <c r="U67" s="35" t="s">
-        <v>150</v>
-      </c>
+      <c r="U67" s="35"/>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
@@ -4272,23 +4250,19 @@
       <c r="AD67" s="35"/>
       <c r="AE67" s="35"/>
       <c r="AF67" s="35"/>
-      <c r="AG67" s="35" t="s">
-        <v>49</v>
-      </c>
+      <c r="AG67" s="35"/>
       <c r="AH67" s="35"/>
       <c r="AI67" s="35"/>
       <c r="AJ67" s="35"/>
     </row>
     <row r="68" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="A68" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
@@ -4306,9 +4280,7 @@
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
-      <c r="U68" s="35" t="s">
-        <v>152</v>
-      </c>
+      <c r="U68" s="35"/>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
@@ -4320,96 +4292,86 @@
       <c r="AD68" s="35"/>
       <c r="AE68" s="35"/>
       <c r="AF68" s="35"/>
-      <c r="AG68" s="35" t="s">
-        <v>153</v>
-      </c>
+      <c r="AG68" s="35"/>
       <c r="AH68" s="35"/>
       <c r="AI68" s="35"/>
       <c r="AJ68" s="35"/>
     </row>
     <row r="69" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
-      <c r="AG69" s="35"/>
-      <c r="AH69" s="35"/>
-      <c r="AI69" s="35"/>
-      <c r="AJ69" s="35"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="21"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="21"/>
+      <c r="AG69" s="21"/>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
     </row>
     <row r="70" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-      <c r="AC70" s="35"/>
-      <c r="AD70" s="35"/>
-      <c r="AE70" s="35"/>
-      <c r="AF70" s="35"/>
-      <c r="AG70" s="35"/>
-      <c r="AH70" s="35"/>
-      <c r="AI70" s="35"/>
-      <c r="AJ70" s="35"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="21"/>
+      <c r="AC70" s="21"/>
+      <c r="AD70" s="21"/>
+      <c r="AE70" s="21"/>
+      <c r="AF70" s="21"/>
+      <c r="AG70" s="21"/>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="21"/>
+      <c r="AJ70" s="21"/>
     </row>
     <row r="71" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
@@ -4525,85 +4487,9 @@
       <c r="AI73" s="21"/>
       <c r="AJ73" s="21"/>
     </row>
-    <row r="74" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-    </row>
-    <row r="75" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
-      <c r="AA75" s="21"/>
-      <c r="AB75" s="21"/>
-      <c r="AC75" s="21"/>
-      <c r="AD75" s="21"/>
-      <c r="AE75" s="21"/>
-      <c r="AF75" s="21"/>
-      <c r="AG75" s="21"/>
-      <c r="AH75" s="21"/>
-      <c r="AI75" s="21"/>
-      <c r="AJ75" s="21"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J2:J75">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J73">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4761,14 +4647,14 @@
       <c r="W4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>166</v>
+      <c r="A5" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -4792,14 +4678,14 @@
       <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>171</v>
+      <c r="A6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -4823,14 +4709,14 @@
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>172</v>
+      <c r="A7" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -4854,14 +4740,14 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>173</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -4885,13 +4771,13 @@
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="15"/>
@@ -4910,13 +4796,13 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="43">
+      <c r="A11" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="42">
         <v>2</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="15"/>
@@ -4927,13 +4813,13 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="43">
+      <c r="A12" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="42">
         <v>1</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="15"/>
@@ -4944,14 +4830,14 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="43">
+      <c r="A13" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="42">
         <v>3</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>169</v>
+      <c r="C13" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -4969,47 +4855,47 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>196</v>
+      <c r="A15" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>197</v>
+      <c r="A16" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>198</v>
+      <c r="A17" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>169</v>
+      <c r="A18" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7471,12 +7357,12 @@
       <c r="A2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>194</v>
+      <c r="B2" s="46" t="s">
+        <v>186</v>
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44135.539125925927</v>
+        <v>44135.541002662037</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>86</v>

--- a/forms/app/outcome_report.xlsx
+++ b/forms/app/outcome_report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="196">
   <si>
     <t>list_name</t>
   </si>
@@ -344,9 +344,6 @@
   <si>
     <t>(decimal-date-time(.) &lt;= decimal-date-time(today()))
 and floor(decimal-date-time(today()) - decimal-date-time(.)) &lt;= 365</t>
-  </si>
-  <si>
-    <t>Date of death can only be from today up to 1 year ago.</t>
   </si>
   <si>
     <t>text</t>
@@ -413,13 +410,7 @@
     <t>r_undo</t>
   </si>
   <si>
-    <t>${date_of_death}</t>
-  </si>
-  <si>
     <t>The date that the patient died.</t>
-  </si>
-  <si>
-    <t>${death_information}</t>
   </si>
   <si>
     <t>Free text providing further information related to the death.</t>
@@ -620,6 +611,12 @@
   </si>
   <si>
     <t>__outcome_information</t>
+  </si>
+  <si>
+    <t>${date_of_outcome_submission}</t>
+  </si>
+  <si>
+    <t>${outcome_information}</t>
   </si>
 </sst>
 </file>
@@ -806,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -883,6 +880,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,10 +1167,10 @@
   <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2638,10 +2636,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -2684,10 +2682,10 @@
         <v>105</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -2703,9 +2701,7 @@
       <c r="M33" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="N33" s="28" t="s">
-        <v>107</v>
-      </c>
+      <c r="N33" s="28"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
@@ -2731,13 +2727,13 @@
     </row>
     <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -2777,13 +2773,13 @@
     </row>
     <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -2795,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
@@ -2825,13 +2821,13 @@
     </row>
     <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -2842,7 +2838,7 @@
       <c r="J36" s="28"/>
       <c r="K36" s="29"/>
       <c r="L36" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
@@ -2874,7 +2870,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -2954,10 +2950,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -2997,13 +2993,13 @@
     </row>
     <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -3044,10 +3040,10 @@
         <v>105</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -3057,7 +3053,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -3090,10 +3086,10 @@
         <v>105</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -3103,7 +3099,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -3132,13 +3128,13 @@
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -3148,7 +3144,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
@@ -3180,7 +3176,7 @@
         <v>85</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -3260,7 +3256,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>38</v>
@@ -3274,7 +3270,7 @@
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
       <c r="L46" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
@@ -3305,13 +3301,13 @@
     </row>
     <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>114</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
@@ -3349,13 +3345,13 @@
     </row>
     <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>116</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
@@ -3366,7 +3362,7 @@
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
@@ -3398,7 +3394,7 @@
         <v>89</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>38</v>
@@ -3421,7 +3417,7 @@
       <c r="S49" s="31"/>
       <c r="T49" s="31"/>
       <c r="U49" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V49" s="31"/>
       <c r="W49" s="31"/>
@@ -3441,13 +3437,13 @@
     </row>
     <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
@@ -3485,13 +3481,13 @@
     </row>
     <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>153</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
@@ -3529,13 +3525,13 @@
     </row>
     <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>121</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>122</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
@@ -3546,7 +3542,7 @@
       <c r="J52" s="31"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
@@ -3575,10 +3571,10 @@
     </row>
     <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>38</v>
@@ -3619,13 +3615,13 @@
     </row>
     <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
@@ -3636,7 +3632,7 @@
       <c r="J54" s="31"/>
       <c r="K54" s="32"/>
       <c r="L54" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="31"/>
@@ -3665,13 +3661,13 @@
     </row>
     <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
@@ -3838,7 +3834,7 @@
         <v>89</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>38</v>
@@ -3860,8 +3856,8 @@
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
-      <c r="U59" s="36" t="s">
-        <v>128</v>
+      <c r="U59" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -3875,7 +3871,7 @@
       <c r="AE59" s="35"/>
       <c r="AF59" s="35"/>
       <c r="AG59" s="36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AH59" s="36"/>
       <c r="AI59" s="35"/>
@@ -3886,7 +3882,7 @@
         <v>89</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>38</v>
@@ -3908,8 +3904,8 @@
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
-      <c r="U60" s="36" t="s">
-        <v>130</v>
+      <c r="U60" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -3923,7 +3919,7 @@
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
       <c r="AG60" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH60" s="36"/>
       <c r="AI60" s="35"/>
@@ -3934,7 +3930,7 @@
         <v>36</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>38</v>
@@ -3978,7 +3974,7 @@
         <v>89</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>38</v>
@@ -4001,7 +3997,7 @@
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
@@ -4015,7 +4011,7 @@
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
       <c r="AG62" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AH62" s="35"/>
       <c r="AI62" s="35"/>
@@ -4026,7 +4022,7 @@
         <v>89</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>38</v>
@@ -4049,7 +4045,7 @@
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
@@ -4074,7 +4070,7 @@
         <v>89</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>38</v>
@@ -4097,7 +4093,7 @@
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
@@ -4111,7 +4107,7 @@
       <c r="AE64" s="35"/>
       <c r="AF64" s="35"/>
       <c r="AG64" s="36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AH64" s="35"/>
       <c r="AI64" s="35"/>
@@ -4122,7 +4118,7 @@
         <v>89</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>38</v>
@@ -4145,7 +4141,7 @@
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
@@ -4170,7 +4166,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>38</v>
@@ -4193,7 +4189,7 @@
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
@@ -4207,7 +4203,7 @@
       <c r="AE66" s="35"/>
       <c r="AF66" s="35"/>
       <c r="AG66" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AH66" s="35"/>
       <c r="AI66" s="35"/>
@@ -4218,7 +4214,7 @@
         <v>85</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
@@ -4648,13 +4644,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -4679,13 +4675,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -4710,13 +4706,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -4741,13 +4737,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -4772,7 +4768,7 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>80</v>
@@ -4797,7 +4793,7 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B11" s="42">
         <v>2</v>
@@ -4814,7 +4810,7 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B12" s="42">
         <v>1</v>
@@ -4831,13 +4827,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="42">
         <v>3</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -4856,46 +4852,46 @@
     </row>
     <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>187</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7358,11 +7354,11 @@
         <v>71</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44135.541002662037</v>
+        <v>44135.542729166664</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>86</v>

--- a/forms/app/outcome_report.xlsx
+++ b/forms/app/outcome_report.xlsx
@@ -1167,10 +1167,10 @@
   <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4503,7 +4503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44135.542729166664</v>
+        <v>44136.686551967592</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>86</v>
